--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -290,7 +290,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -678,6 +678,10 @@
   </si>
   <si>
     <t>Immunization.patient.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1819,40 +1823,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="94.37890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.4453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.41015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="147.5546875" customWidth="true" bestFit="true"/>
@@ -3934,13 +3938,13 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3991,7 +3995,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4012,7 +4016,7 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4023,7 +4027,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4052,7 +4056,7 @@
         <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>137</v>
@@ -4093,10 +4097,10 @@
         <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>78</v>
@@ -4105,7 +4109,7 @@
         <v>182</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4126,7 +4130,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4137,7 +4141,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4160,16 +4164,16 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4219,7 +4223,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4228,7 +4232,7 @@
         <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>100</v>
@@ -4251,7 +4255,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4277,13 +4281,13 @@
         <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4309,13 +4313,13 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>78</v>
@@ -4333,7 +4337,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4365,7 +4369,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4391,13 +4395,13 @@
         <v>146</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4447,7 +4451,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4468,7 +4472,7 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4479,7 +4483,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4502,16 +4506,16 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4561,7 +4565,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4593,7 +4597,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4616,13 +4620,13 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4673,7 +4677,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4688,16 +4692,16 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4705,7 +4709,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4728,16 +4732,16 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4787,7 +4791,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>89</v>
@@ -4802,24 +4806,24 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4842,13 +4846,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4899,7 +4903,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4920,7 +4924,7 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4931,7 +4935,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4960,7 +4964,7 @@
         <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -5001,10 +5005,10 @@
         <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>78</v>
@@ -5013,7 +5017,7 @@
         <v>182</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5034,7 +5038,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5045,10 +5049,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>78</v>
@@ -5070,13 +5074,13 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5127,7 +5131,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5148,7 +5152,7 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5159,7 +5163,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5182,13 +5186,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5239,7 +5243,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5260,10 +5264,10 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5271,7 +5275,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5294,16 +5298,16 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5353,7 +5357,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5371,13 +5375,13 @@
         <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5385,7 +5389,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5411,13 +5415,13 @@
         <v>164</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5446,10 +5450,10 @@
         <v>168</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>78</v>
@@ -5467,7 +5471,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5485,13 +5489,13 @@
         <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5499,7 +5503,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5522,13 +5526,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5579,7 +5583,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5594,16 +5598,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5611,7 +5615,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5634,13 +5638,13 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5691,7 +5695,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5709,21 +5713,21 @@
         <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5746,13 +5750,13 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5803,7 +5807,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5821,21 +5825,21 @@
         <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5858,13 +5862,13 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5915,7 +5919,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5933,10 +5937,10 @@
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5947,7 +5951,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5973,10 +5977,10 @@
         <v>174</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>177</v>
@@ -6009,7 +6013,7 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>78</v>
@@ -6027,7 +6031,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6036,7 +6040,7 @@
         <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
@@ -6059,7 +6063,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6085,10 +6089,10 @@
         <v>174</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>177</v>
@@ -6121,34 +6125,34 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH38" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
@@ -6171,7 +6175,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6194,13 +6198,13 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6251,7 +6255,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6269,10 +6273,10 @@
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6283,7 +6287,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6306,13 +6310,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6363,7 +6367,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6378,13 +6382,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6395,7 +6399,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6418,13 +6422,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6475,7 +6479,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6496,7 +6500,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6507,7 +6511,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6536,7 +6540,7 @@
         <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>137</v>
@@ -6589,7 +6593,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6610,7 +6614,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6621,11 +6625,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6647,10 +6651,10 @@
         <v>134</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>137</v>
@@ -6705,7 +6709,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6737,7 +6741,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6763,10 +6767,10 @@
         <v>164</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6793,13 +6797,13 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>78</v>
@@ -6817,7 +6821,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6832,13 +6836,13 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6849,7 +6853,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6872,16 +6876,16 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6931,7 +6935,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>89</v>
@@ -6946,16 +6950,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6963,7 +6967,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6986,13 +6990,13 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7043,7 +7047,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7058,13 +7062,13 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7075,7 +7079,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7101,10 +7105,10 @@
         <v>164</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7134,10 +7138,10 @@
         <v>168</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>78</v>
@@ -7155,7 +7159,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7170,13 +7174,13 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7187,7 +7191,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7210,13 +7214,13 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7267,7 +7271,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7282,7 +7286,7 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7299,7 +7303,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7322,23 +7326,23 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>78</v>
@@ -7383,7 +7387,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7401,7 +7405,7 @@
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>131</v>
@@ -7415,7 +7419,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7441,10 +7445,10 @@
         <v>164</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7474,10 +7478,10 @@
         <v>168</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
@@ -7495,7 +7499,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7527,7 +7531,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7550,13 +7554,13 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7607,7 +7611,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7619,7 +7623,7 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -7639,7 +7643,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7662,13 +7666,13 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7719,7 +7723,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7740,7 +7744,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7751,7 +7755,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7780,7 +7784,7 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>137</v>
@@ -7833,7 +7837,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -7854,7 +7858,7 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7865,11 +7869,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7891,10 +7895,10 @@
         <v>134</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>137</v>
@@ -7949,7 +7953,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -7981,7 +7985,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8004,13 +8008,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8061,7 +8065,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8079,7 +8083,7 @@
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>131</v>
@@ -8093,7 +8097,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8119,10 +8123,10 @@
         <v>102</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8173,7 +8177,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8205,7 +8209,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8228,13 +8232,13 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8285,7 +8289,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8303,7 +8307,7 @@
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>131</v>
@@ -8317,7 +8321,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8340,13 +8344,13 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8397,7 +8401,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8415,7 +8419,7 @@
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>131</v>
@@ -8429,7 +8433,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8455,10 +8459,10 @@
         <v>164</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8488,10 +8492,10 @@
         <v>168</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>78</v>
@@ -8509,7 +8513,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8527,7 +8531,7 @@
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>131</v>
@@ -8541,7 +8545,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8567,10 +8571,10 @@
         <v>164</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8600,10 +8604,10 @@
         <v>168</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
@@ -8621,7 +8625,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8653,7 +8657,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8676,16 +8680,16 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8735,7 +8739,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8753,10 +8757,10 @@
         <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8767,7 +8771,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8790,13 +8794,13 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8847,7 +8851,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -8868,7 +8872,7 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8879,7 +8883,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8908,7 +8912,7 @@
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>137</v>
@@ -8961,7 +8965,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -8982,7 +8986,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -8993,11 +8997,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9019,10 +9023,10 @@
         <v>134</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>137</v>
@@ -9077,7 +9081,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9109,7 +9113,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9132,13 +9136,13 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9189,7 +9193,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9207,10 +9211,10 @@
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9221,7 +9225,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9244,13 +9248,13 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9301,7 +9305,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9319,10 +9323,10 @@
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9333,7 +9337,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9356,13 +9360,13 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9413,7 +9417,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9431,10 +9435,10 @@
         <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9445,7 +9449,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9468,13 +9472,13 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9525,7 +9529,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9557,7 +9561,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9580,13 +9584,13 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9637,7 +9641,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9658,7 +9662,7 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9669,7 +9673,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9698,7 +9702,7 @@
         <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>137</v>
@@ -9751,7 +9755,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -9772,7 +9776,7 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -9783,11 +9787,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9809,10 +9813,10 @@
         <v>134</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>137</v>
@@ -9867,7 +9871,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -9899,7 +9903,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9922,13 +9926,13 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9979,7 +9983,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10011,7 +10015,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10034,13 +10038,13 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10091,7 +10095,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10123,7 +10127,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10149,10 +10153,10 @@
         <v>164</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10183,7 +10187,7 @@
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10201,7 +10205,7 @@
         <v>182</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10233,10 +10237,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>78</v>
@@ -10261,10 +10265,10 @@
         <v>164</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10295,7 +10299,7 @@
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
@@ -10313,7 +10317,7 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10345,7 +10349,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10368,16 +10372,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10427,7 +10431,7 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>89</v>
@@ -10459,7 +10463,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10482,16 +10486,16 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10541,7 +10545,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -9541,7 +9541,7 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
